--- a/data/trans_dic/P70A_R_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P70A_R_2023-Dificultad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.4696598492248742</v>
+        <v>0.4696598492248743</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3953828009476956</v>
+        <v>0.3953828009476957</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4263683641878839</v>
+        <v>0.4263683641878838</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2721090299724308</v>
+        <v>0.2812007533306731</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.270950383293332</v>
+        <v>0.2829442552524342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3336867343991243</v>
+        <v>0.3107825130153418</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6634621089034405</v>
+        <v>0.6578259746136933</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5353301820478217</v>
+        <v>0.520235798603064</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5385687582628985</v>
+        <v>0.5279627936413442</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2927494115437747</v>
+        <v>0.2927494115437746</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.2836584587057464</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2036512774450704</v>
+        <v>0.2088638212697756</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2078627116778462</v>
+        <v>0.2070527315364374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2267910485650093</v>
+        <v>0.2279284960467828</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.39638855454876</v>
+        <v>0.4056581366396895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3746302754502423</v>
+        <v>0.3735921955286055</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3519646268762589</v>
+        <v>0.3549726576255272</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2449822029274382</v>
+        <v>0.2449822029274383</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.1597995897233359</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2027787864714035</v>
+        <v>0.2027787864714036</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1793641772568077</v>
+        <v>0.1786191868724689</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1128664874980205</v>
+        <v>0.1108278566486083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1561037818415321</v>
+        <v>0.1564151287758543</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3371449364788459</v>
+        <v>0.3270605079001589</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2156785761503601</v>
+        <v>0.2134285467045389</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2558231835783471</v>
+        <v>0.2525904430313777</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1003163777840211</v>
+        <v>0.09606680564675524</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1329899161441669</v>
+        <v>0.1352635248300788</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.130643406234649</v>
+        <v>0.1309297799812986</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2383373690647781</v>
+        <v>0.2411755674368957</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2675082384109614</v>
+        <v>0.2708154654746901</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2319114682361177</v>
+        <v>0.228389420725562</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2006074532013403</v>
+        <v>0.2065523150552463</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1922099626393005</v>
+        <v>0.1908477248987082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2104818383500858</v>
+        <v>0.2082821817017278</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.295214859600862</v>
+        <v>0.2991554023865716</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2665044585963905</v>
+        <v>0.2640110512106182</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2712486000033529</v>
+        <v>0.2688800591322464</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9118</v>
+        <v>9423</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12685</v>
+        <v>13247</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26803</v>
+        <v>24964</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22232</v>
+        <v>22043</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25063</v>
+        <v>24356</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>43261</v>
+        <v>42409</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22370</v>
+        <v>22943</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20826</v>
+        <v>20745</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47635</v>
+        <v>47874</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>43541</v>
+        <v>44560</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37535</v>
+        <v>37431</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>73926</v>
+        <v>74558</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>24400</v>
+        <v>24299</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15077</v>
+        <v>14805</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>42089</v>
+        <v>42172</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>45864</v>
+        <v>44492</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28811</v>
+        <v>28510</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68975</v>
+        <v>68103</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13988</v>
+        <v>13396</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15716</v>
+        <v>15985</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>33656</v>
+        <v>33730</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33234</v>
+        <v>33630</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>31613</v>
+        <v>32004</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>59745</v>
+        <v>58838</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>84021</v>
+        <v>86511</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>76647</v>
+        <v>76104</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>172090</v>
+        <v>170292</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>123646</v>
+        <v>125296</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>106274</v>
+        <v>105279</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>221773</v>
+        <v>219837</v>
       </c>
     </row>
     <row r="24">
